--- a/Master/1711/20171103纯合筛选.xlsx
+++ b/Master/1711/20171103纯合筛选.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/Master/1711/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="123-B1" sheetId="1" r:id="rId1"/>
@@ -22,11 +17,8 @@
     <sheet name="工作表8" sheetId="8" r:id="rId8"/>
     <sheet name="工作表9" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="946">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2893,12 +2885,19 @@
   <si>
     <t>AGCTATTTGG TGGTTTGTTT TCAACTTTTC CATGTACACC TGGGGCTTGC CAATCTCCTT CCTCCTCTTT TTAATC</t>
   </si>
+  <si>
+    <t>GTCCTGCCGCCCTGGAAATTGTGCCTATGTAAAGTGTAGCCGGCCACACGTTGTTTCTTCCTTTCCTTCACATCTCACAGCCCCGTCTTGCTGCTTCCAGTCCAGCCCGCTCGCCGTCTCGCCATTTTGACCAGACCACCTCGCTGCCTCTGCTCTGCTCAGTGCTGCTCACTGCCTCACTCACACTGTCACAGTGCTCTTCTGGGTATAAGTAGCTGGGCGCGCGGCGTCACCTTCCTTGGCTGCCCGTGAGCTTCCCGCGCGCGCCATGGCACGGCCTCGTGGGCGTGGGCGAGCTTCTTGGTAGGCGAGGTGTCGCCGGCGATCGAGTTGTCTCGAGAACTCAGCTATGAGGACGGCGGCCACGCCGCCTCTCGCCGCCGCCGCCGCCGCCGTCGCGGCAGTGTTCCTCTCTGCGTTGCTGCTCGCCTCCGCCTCCGCCTCCGCCTCCAGGCTCCCTCCTCCTCGCCGTCTTCTTCCCCTGGTACGCGTACGCCCTCGCCGCCGCCGTTCTTGATCGACCTGAGTGTTTTTTAAAAATTTTGTTCGGTTAGTTGATGCGCTGTGTGTTCGTCCATGGCGATGCCGATGCAGGTTGGTGGCGAGGTGGCGGTGGCGGTGGTGGCTGGGGAGGAGGAGAAGGTGCGGCTGGGGTCGAGCCCGCCGAGCTGCTACAGCAAGTGCTACGGGTGCAGCCCGTGCGTCGCGGTGCAGGTGCCCACCTTGTCCGCCCCGTCCGTCCCCGCCGCCGCCGCGCCGCGCACGACGCCGCGCCGCTCGTGGCGACGTTCACCAACTACAAGCCGCTAGGGTGGAAGTGCCAGTGCCGCGACCGCCTGTTCGACCCCTGACCCTGAGGCGCGCGCGCCCCGTGGCGCGCCGTGGCGTGGCGTGGCGCGTGCATGGCGGGGCTCGCGCTCGCGCTCTCGCTGTGAATTACGGTGTGTGTGGCCGCGTCGCGTGCCCGGCAGCACATGGCGCTGCACTGCTGCTGATGCTGGTGGTGGTGGAATCGTTGTCGTCGCGTCGGGCTGAGAGGGATTGTTGATAGATTCCGTGTAATATGCCAGGACAAAATTTTGTCACCGCTGCTGCTGCCCATGCAGCTGGATCGGCTCGGCTACTTTCACCACCTATACTGTATCTTTCACTGGCATCTGCTCGCCGTTTTGGAATCTCTGCGGTGTGGGGTTGCCTCTTGCATGTACACATGTTTTTCATGTATCGATCCATGCCTCCTCCATGGAATCTAATGGGAATCCATCATCGTTCATGCTGGATGGATGGATGGATGTAGTGAATGGTAGtttttcttatttttgttggagatggatattttttactttacatctaatcggatatatgttgtcttttaaattgagaatttagc </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCGGTTAGTACTTAGCACCACCACCACCACGTCGTTTCATCTCAGCAGACATCAGTTGTTGTCACTTCTAATCTTCCACTATTAGTAGTACGGTTGCCACACTGCTAGCCAATCCACTTCGATTGGTTCCACCGCGCCTACCGAGTTTCCCTTGCTAGGCAGTAGAGAGAGTCTGTGATCGAGAGAGAAGAGGATCGAGCAGCTAGCAAGCCGGCGGGCGCCATGGTGCTCTCGCACGCGAGCTCCGGCCGGGACGACGCCGTGCGCTGCACCTTCGCGACGCGCTACGCCTGCGAGACGCTGCCGCGGTGCTGGCTGCATGCTCCGATCTCTCGGTTGGGTTTTGGCCAATTTGGGCGCCGCGCGGGGCTGTGCTGATCGATCGATTGCTTCGTTGTTGAGTGTGCAGGTTCAGGATGCCGGAGCAGTCGATCCCGAGGGAGGCGGCGTACCAGATCATCAACGACGAGCTGATGCTGGACGGGAACCCGCGGCTGAACCTGGCGTCCTTCGTCACCACGTGGATGGAGCCCGAGTGCGACAAGCTCATCATGGACTCCGTTAACAAGAACTACGTCGACATGGACGAGTACCCTGTCACCACGGAGCTCCAGGTCGGAATTAAACCACATGGGATCTTTCTTCTATTTTGTTctccgggctgataatacttgcccttttggacaagggtgaagtcaaactttagaatctttgattataaatcatttttaaaatatttgtcttttaaatatggtgactattatggtgactatatgtatagattagtcttaaaaattattttaataagatcatatatttgctaacaattttatacatattataataaaaaataatagttaaagttgttttttttggagaccgtgcccttgtccaaaacgacaagtattatcaacccggagggagAACATATATATGGGGGGAATCCTGTTTCAACACAAGTAATGTTACGTACTCCCGTTGTGAGATTTGCTTTGAGATTCGCGCACCAGCATAGTTGATTGAATTCCTCTGTTTAGTTCAGCTCTAGTCTTAAGGAATAATTAATTTTGTGGAACTAATTAGTACAGCTCTAGTACTCCACTTCGCAAGGATGGAAGGATAAGGATCCTAACACCTGTTATTTGGGCAGTTGATAGCTGATCATAATTAGGTTATGGACAAGTTATGACACATCATACTTTTTGATGTGATTGGACTTTTCTGGGTCCATAACCAACAATCCTGGACAGTTTTCAGCTTGTTGCTGATCACAACATTTTTACTGAATATGTTCTAGAAAGAACATTTTTGTTTACTGAATGTAGAAAAGGGGAAGTTTTACCATTCACCTTGTATTCAAAATGACTCCAACCATGCCAGCAGGGAATTGGAAATTCAGATTCATCTTTATGGAACTGCCATTTGATGTTAGAGAGTACTGCTACATACGGATAACAATGGCATTTTATCAAACCTTTGTTTTGTGAGATTTTTTTTTTGCTGTTCTTAAAGGGAAAGGGAGATACTAAGAGGTATCACATTTTTTGCTGTAATTTCTTTTTAAGTTGAAACTGAAACCACATTCAAATAAAGTTCTACTGCTCTCTTCTCACTGTACATTTGTATTATTTGGAAAGTTAACTTACTGGCTATTTATTGATTTTTACCAGGGCTTTTTTTTATCATGTTTCAGCTTTTTTTGTTAACACACAGTCTTGATTTAGTCATTTTTTAGTCAAGCTAATGACATATTCATTCAGAAAAAAAGAATAATAGCTACATCTAACTATTGTTTGCTGACTACTTGCATGTACTTTTGCAGAACCGTTGTGTGAATATGATAGCTCACCTGTTCAATGCACCAATCAAGGAGGATGAAACAGCTATTGGAGTTGGGACGGTGGGATCCTCAGAAGCAATTATGCTTGCAGGACTGGCATTCAAGAGGAAGTGGCAAAACAAACGGAAGGAACAGGGGAAGCCATGTGACAAACCCAACATTGTTACTGGTGCTAATGTTCAGGTATTTTTGTTTCATTGTCATGTGAAGTGTTTTTATCTTAGCCATTATAGTTATCTAAGAAAAAGGCCTGTGGTGATTCCCCGTGTTCCTAGGTTTGCTGGGAGAAATTTGCCAGATATTTTGAAGTAGAACTGAAGGAGGTTAAGCTCAGTGAAGGATACTATGTCATGGATCCTGTAAAGGCTGTTGAAATGGTGGATGAGAACACTATATGCGTTGCGGCCATCTTGGGCTCTACTCTCACTGGAGAGTTTGAGGATGTTAAGTTATTGAATAATCTCCTAACAGAAAAGAATAAGGAAACTGGGTATGCATTTTATCTGTTCTTTAGTCAATCAACTATCTGCGCAATGCAACAGCTAGCAATATGCATGCTTTAGGTTGTCTCTGGAGGTCGATCGGTATGACCAGGAAAACTGGTAACCTGTTGTGACCAGATTACTTAACTATTCTTTTGTCAATCCCTCATTACTTGTTTTTATGCTCAGCTGTGTGTGCCAAAAGAAAACAAAAATGTATACAAATTTTTTATTTGCAACTCATCTTACATAAATTGGCCACACTTCTTGCAAGGTAGTTAATCTGTTACACAAAACATGCAGGTGGGATGTGCCAATTCATGTTGATGCAGCAAGTGGAGGATTTATAGCACCTTTTCTATACCCTGAGCTTGAATGGGACTTCAGGCTACCACTGGTGAAGAGCATCAATGTCAGTGGGCACAAGTATGGCCTTGTGTATCCAGGTGTTGGTTGGGTCATTTGGCGAAGCAAAGAGGATTTGCCTGAAGAACTCATTTTCCATATAAACTATCTGGGGACAGACCAGCCGACGTTCACTCTGAACTTCTCCAAAGGTACATACATTTTCTTGTAGTTTCATCACCAAACTTTAATTCTTTTGTATTTCAACAAACCAAGTTCAAGGCAATATTGTGTAGGTTCCAGCCAGATAATCGCACAGTACTATCAACTAATACGCCTGGGATTCGAGGTACTTTACTTTTCTTCATATCCCTCATGGAAACTGCAGAACATTTTCTTTGCCGAGCCGGCGGCAAGGACCCGCTGCCAGTTTATTAAGATTGGGACAGGTTTTTGACAAGAACAACAAACATGGTTGTTGTGACTTCAGAAACCAGATAGTATCCACGCAGGCGCTCATATAAACGCTCTTCCTCACATAAAAAAGAGAGTTTCTGGCCATTTAGAACTATTTTGGTTTCTTTCTGCAGGGATACAAGAACATCATGCAGAATTGCATGGAGAACACAGCAATACTAAGGGAAGGCATAGAGGCGACTGGTCGATTCGAAATCCTCTCCAAGGAGGCCGGTGTGCCCTTGGTGGCGTTCTCGCTCAAGGACAGCGGCAGGTACACCGTGTTCGACATCTCCGAGCACCTGAGGAGGTTCGGCTGGATCGTGCCGGCGTACACCATGCCGGCCAACGCCGAGCACGTCGCCGTCCTCCGCGTCGTCATCAGGGAGGACTTCAGCCGGAGCCTCGCCGAGCGGCTCGTCTCGGACATCGTCAAGATCCTGCACGAGCTGGACGCCCATTCGGCCCAGGTGCTGAAGATCTCCAGCGCCATCGCGAAGCAGCAATCGGGCGACGATGGCGTGGTCACCAAGAAGAGCGTCCTGGAGACCGAGAGGGAGATCTTCGCGTACTGGAGGGACCAGGTGAAGAAGAAGCAGACCGGAATCTGCTAGTGTGGCTCTGTGAGAAATGCTTGAATAACGTGGCATGCTCGATTTGTGCATGGGATGGCCGGATCGGATGGGACTGACTGGCGGTGTACGGACATGGCTGCCCTTGTTCTTATGTTGAACTGTTGATGTAGAAAAATGTGTGGCCTTTGTATGGTTGTAAGCCATCTACGTACCATGGACTTCAGCTATTTGGTGGTTTGTTTTCAACTTTTCCATGTACACCTGGGGCTTGCCAATCTCCTTCCTCCTCTTTTTAATC                            </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3241,7 +3240,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3249,24 +3248,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G74"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="18.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="45.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +3282,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3305,7 +3304,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="17.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3314,13 +3313,13 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="17.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3330,8 +3329,11 @@
       <c r="G6" s="6" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3339,7 +3341,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="17.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3347,7 +3349,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="17.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -3355,7 +3357,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="17.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="17.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -3371,7 +3373,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="17.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -3379,7 +3381,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="17.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="17.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -3395,7 +3397,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="17.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="17.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="17.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3419,7 +3421,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="17.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="17.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="17.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -3443,7 +3445,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="17.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="17.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -3459,7 +3461,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="17.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -3467,13 +3469,13 @@
         <v>891</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="17.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="17.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -3483,8 +3485,11 @@
       <c r="G25" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -3492,7 +3497,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="17.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -3500,7 +3505,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="17.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -3508,7 +3513,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="17.25">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="17.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="17.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -3532,7 +3537,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="17.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -3540,7 +3545,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17.25">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -3548,7 +3553,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -3556,7 +3561,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.25">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -3564,7 +3569,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17.25">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -3572,7 +3577,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.25">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
@@ -3580,7 +3585,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17.25">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
@@ -3588,7 +3593,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17.25">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
@@ -3596,7 +3601,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="17.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -3604,7 +3609,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="17.25">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -3612,7 +3617,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="17.25">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -3620,7 +3625,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="17.25">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
@@ -3628,7 +3633,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="17.25">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
@@ -3636,7 +3641,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17.25">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -3644,7 +3649,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="17.25">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -3652,7 +3657,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="17.25">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -3660,7 +3665,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17.25">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="17.25">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
@@ -3676,7 +3681,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="17.25">
       <c r="A50" s="2" t="s">
         <v>30</v>
       </c>
@@ -3684,7 +3689,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="17.25">
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
@@ -3692,7 +3697,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="17.25">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
@@ -3700,7 +3705,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="17.25">
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
@@ -3708,7 +3713,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="17.25">
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
@@ -3716,7 +3721,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="17.25">
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
@@ -3724,7 +3729,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="17.25">
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
@@ -3732,7 +3737,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="17.25">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
@@ -3740,7 +3745,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="17.25">
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="17.25">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
@@ -3756,7 +3761,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="17.25">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="17.25">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="17.25">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
@@ -3780,7 +3785,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="17.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -3788,7 +3793,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="17.25">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="17.25">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -3804,7 +3809,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="17.25">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -3812,7 +3817,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="17.25">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="17.25">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -3828,7 +3833,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="17.25">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -3836,7 +3841,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="17.25">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
@@ -3844,7 +3849,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="17.25">
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
@@ -3852,7 +3857,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="17.25">
       <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
@@ -3860,7 +3865,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="17.25">
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
@@ -3868,7 +3873,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="17.25">
       <c r="A74" s="2" t="s">
         <v>32</v>
       </c>
@@ -3876,117 +3881,117 @@
         <v>943</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
@@ -4006,17 +4011,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4030,482 +4035,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>195</v>
       </c>
@@ -4525,17 +4530,17 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4549,22 +4554,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>199</v>
       </c>
@@ -4572,12 +4577,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>201</v>
       </c>
@@ -4585,17 +4590,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -4603,437 +4608,437 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>291</v>
       </c>
@@ -5052,17 +5057,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5076,482 +5081,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>387</v>
       </c>
@@ -5570,17 +5575,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5594,482 +5599,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>483</v>
       </c>
@@ -6088,17 +6093,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6112,482 +6117,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>579</v>
       </c>
@@ -6606,17 +6611,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6630,482 +6635,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>675</v>
       </c>
@@ -7124,17 +7129,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7148,482 +7153,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>771</v>
       </c>
@@ -7642,17 +7647,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7666,482 +7671,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>867</v>
       </c>
@@ -8149,5 +8154,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Master/1711/20171103纯合筛选.xlsx
+++ b/Master/1711/20171103纯合筛选.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/Master/1711/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="123-B1" sheetId="1" r:id="rId1"/>
@@ -19,6 +24,9 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="951">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2892,12 +2900,85 @@
   <si>
     <t>GCGGTTAGTACTTAGCACCACCACCACCACGTCGTTTCATCTCAGCAGACATCAGTTGTTGTCACTTCTAATCTTCCACTATTAGTAGTACGGTTGCCACACTGCTAGCCAATCCACTTCGATTGGTTCCACCGCGCCTACCGAGTTTCCCTTGCTAGGCAGTAGAGAGAGTCTGTGATCGAGAGAGAAGAGGATCGAGCAGCTAGCAAGCCGGCGGGCGCCATGGTGCTCTCGCACGCGAGCTCCGGCCGGGACGACGCCGTGCGCTGCACCTTCGCGACGCGCTACGCCTGCGAGACGCTGCCGCGGTGCTGGCTGCATGCTCCGATCTCTCGGTTGGGTTTTGGCCAATTTGGGCGCCGCGCGGGGCTGTGCTGATCGATCGATTGCTTCGTTGTTGAGTGTGCAGGTTCAGGATGCCGGAGCAGTCGATCCCGAGGGAGGCGGCGTACCAGATCATCAACGACGAGCTGATGCTGGACGGGAACCCGCGGCTGAACCTGGCGTCCTTCGTCACCACGTGGATGGAGCCCGAGTGCGACAAGCTCATCATGGACTCCGTTAACAAGAACTACGTCGACATGGACGAGTACCCTGTCACCACGGAGCTCCAGGTCGGAATTAAACCACATGGGATCTTTCTTCTATTTTGTTctccgggctgataatacttgcccttttggacaagggtgaagtcaaactttagaatctttgattataaatcatttttaaaatatttgtcttttaaatatggtgactattatggtgactatatgtatagattagtcttaaaaattattttaataagatcatatatttgctaacaattttatacatattataataaaaaataatagttaaagttgttttttttggagaccgtgcccttgtccaaaacgacaagtattatcaacccggagggagAACATATATATGGGGGGAATCCTGTTTCAACACAAGTAATGTTACGTACTCCCGTTGTGAGATTTGCTTTGAGATTCGCGCACCAGCATAGTTGATTGAATTCCTCTGTTTAGTTCAGCTCTAGTCTTAAGGAATAATTAATTTTGTGGAACTAATTAGTACAGCTCTAGTACTCCACTTCGCAAGGATGGAAGGATAAGGATCCTAACACCTGTTATTTGGGCAGTTGATAGCTGATCATAATTAGGTTATGGACAAGTTATGACACATCATACTTTTTGATGTGATTGGACTTTTCTGGGTCCATAACCAACAATCCTGGACAGTTTTCAGCTTGTTGCTGATCACAACATTTTTACTGAATATGTTCTAGAAAGAACATTTTTGTTTACTGAATGTAGAAAAGGGGAAGTTTTACCATTCACCTTGTATTCAAAATGACTCCAACCATGCCAGCAGGGAATTGGAAATTCAGATTCATCTTTATGGAACTGCCATTTGATGTTAGAGAGTACTGCTACATACGGATAACAATGGCATTTTATCAAACCTTTGTTTTGTGAGATTTTTTTTTTGCTGTTCTTAAAGGGAAAGGGAGATACTAAGAGGTATCACATTTTTTGCTGTAATTTCTTTTTAAGTTGAAACTGAAACCACATTCAAATAAAGTTCTACTGCTCTCTTCTCACTGTACATTTGTATTATTTGGAAAGTTAACTTACTGGCTATTTATTGATTTTTACCAGGGCTTTTTTTTATCATGTTTCAGCTTTTTTTGTTAACACACAGTCTTGATTTAGTCATTTTTTAGTCAAGCTAATGACATATTCATTCAGAAAAAAAGAATAATAGCTACATCTAACTATTGTTTGCTGACTACTTGCATGTACTTTTGCAGAACCGTTGTGTGAATATGATAGCTCACCTGTTCAATGCACCAATCAAGGAGGATGAAACAGCTATTGGAGTTGGGACGGTGGGATCCTCAGAAGCAATTATGCTTGCAGGACTGGCATTCAAGAGGAAGTGGCAAAACAAACGGAAGGAACAGGGGAAGCCATGTGACAAACCCAACATTGTTACTGGTGCTAATGTTCAGGTATTTTTGTTTCATTGTCATGTGAAGTGTTTTTATCTTAGCCATTATAGTTATCTAAGAAAAAGGCCTGTGGTGATTCCCCGTGTTCCTAGGTTTGCTGGGAGAAATTTGCCAGATATTTTGAAGTAGAACTGAAGGAGGTTAAGCTCAGTGAAGGATACTATGTCATGGATCCTGTAAAGGCTGTTGAAATGGTGGATGAGAACACTATATGCGTTGCGGCCATCTTGGGCTCTACTCTCACTGGAGAGTTTGAGGATGTTAAGTTATTGAATAATCTCCTAACAGAAAAGAATAAGGAAACTGGGTATGCATTTTATCTGTTCTTTAGTCAATCAACTATCTGCGCAATGCAACAGCTAGCAATATGCATGCTTTAGGTTGTCTCTGGAGGTCGATCGGTATGACCAGGAAAACTGGTAACCTGTTGTGACCAGATTACTTAACTATTCTTTTGTCAATCCCTCATTACTTGTTTTTATGCTCAGCTGTGTGTGCCAAAAGAAAACAAAAATGTATACAAATTTTTTATTTGCAACTCATCTTACATAAATTGGCCACACTTCTTGCAAGGTAGTTAATCTGTTACACAAAACATGCAGGTGGGATGTGCCAATTCATGTTGATGCAGCAAGTGGAGGATTTATAGCACCTTTTCTATACCCTGAGCTTGAATGGGACTTCAGGCTACCACTGGTGAAGAGCATCAATGTCAGTGGGCACAAGTATGGCCTTGTGTATCCAGGTGTTGGTTGGGTCATTTGGCGAAGCAAAGAGGATTTGCCTGAAGAACTCATTTTCCATATAAACTATCTGGGGACAGACCAGCCGACGTTCACTCTGAACTTCTCCAAAGGTACATACATTTTCTTGTAGTTTCATCACCAAACTTTAATTCTTTTGTATTTCAACAAACCAAGTTCAAGGCAATATTGTGTAGGTTCCAGCCAGATAATCGCACAGTACTATCAACTAATACGCCTGGGATTCGAGGTACTTTACTTTTCTTCATATCCCTCATGGAAACTGCAGAACATTTTCTTTGCCGAGCCGGCGGCAAGGACCCGCTGCCAGTTTATTAAGATTGGGACAGGTTTTTGACAAGAACAACAAACATGGTTGTTGTGACTTCAGAAACCAGATAGTATCCACGCAGGCGCTCATATAAACGCTCTTCCTCACATAAAAAAGAGAGTTTCTGGCCATTTAGAACTATTTTGGTTTCTTTCTGCAGGGATACAAGAACATCATGCAGAATTGCATGGAGAACACAGCAATACTAAGGGAAGGCATAGAGGCGACTGGTCGATTCGAAATCCTCTCCAAGGAGGCCGGTGTGCCCTTGGTGGCGTTCTCGCTCAAGGACAGCGGCAGGTACACCGTGTTCGACATCTCCGAGCACCTGAGGAGGTTCGGCTGGATCGTGCCGGCGTACACCATGCCGGCCAACGCCGAGCACGTCGCCGTCCTCCGCGTCGTCATCAGGGAGGACTTCAGCCGGAGCCTCGCCGAGCGGCTCGTCTCGGACATCGTCAAGATCCTGCACGAGCTGGACGCCCATTCGGCCCAGGTGCTGAAGATCTCCAGCGCCATCGCGAAGCAGCAATCGGGCGACGATGGCGTGGTCACCAAGAAGAGCGTCCTGGAGACCGAGAGGGAGATCTTCGCGTACTGGAGGGACCAGGTGAAGAAGAAGCAGACCGGAATCTGCTAGTGTGGCTCTGTGAGAAATGCTTGAATAACGTGGCATGCTCGATTTGTGCATGGGATGGCCGGATCGGATGGGACTGACTGGCGGTGTACGGACATGGCTGCCCTTGTTCTTATGTTGAACTGTTGATGTAGAAAAATGTGTGGCCTTTGTATGGTTGTAAGCCATCTACGTACCATGGACTTCAGCTATTTGGTGGTTTGTTTTCAACTTTTCCATGTACACCTGGGGCTTGCCAATCTCCTTCCTCCTCTTTTTAATC                            </t>
   </si>
+  <si>
+    <t>在5500序列后有一个T是野生型可以看出SNP，而后还有一个3BP确实，可以进行判断。</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu'lie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you'yi'ge</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ye'sheng'xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ke'yi'kan'chu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>er'hou</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>hai'you</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>que'shi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>pan'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cggcaggctgtcccgtgtctc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3bdef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAACCATCCAAGCCCTCCGCCGCCGCCGCCCGG</t>
+  </si>
+  <si>
+    <t>符合的就是野生稻</t>
+    <rPh sb="0" eb="1">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiu'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye'sheng'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3240,7 +3321,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3250,22 +3331,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="3" width="18.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="45.875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="2"/>
+    <col min="2" max="3" width="18.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" style="2" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="17.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3282,7 +3365,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3293,7 +3376,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3304,22 +3387,35 @@
         <v>873</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="17.25">
+        <v>948</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" ht="17.25">
+      <c r="F5" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3333,7 +3429,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17.25">
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3341,7 +3437,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17.25">
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3349,7 +3445,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17.25">
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -3357,7 +3453,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17.25">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3365,7 +3461,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.25">
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -3373,7 +3469,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17.25">
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -3381,7 +3477,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17.25">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -3389,7 +3485,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.25">
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -3397,7 +3493,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.25">
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -3405,7 +3501,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.25">
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -3413,7 +3509,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="17.25">
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3421,7 +3517,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="17.25">
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3429,7 +3525,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="17.25">
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3437,7 +3533,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="17.25">
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -3445,7 +3541,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="17.25">
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -3453,7 +3549,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17.25">
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -3461,7 +3557,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17.25">
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -3469,13 +3565,13 @@
         <v>891</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="17.25">
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:15" ht="17.25">
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -3489,7 +3585,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="17.25">
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -3497,7 +3593,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="17.25">
+    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -3505,7 +3601,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17.25">
+    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -3513,7 +3609,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="17.25">
+    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -3521,7 +3617,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="17.25">
+    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -3529,7 +3625,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="17.25">
+    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -3537,7 +3633,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="17.25">
+    <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -3545,7 +3641,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.25">
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -3553,7 +3649,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -3561,7 +3657,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.25">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -3569,7 +3665,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.25">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -3577,7 +3673,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
@@ -3585,7 +3681,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.25">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
@@ -3593,7 +3689,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.25">
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
@@ -3601,7 +3697,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.25">
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -3609,7 +3705,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25">
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -3617,7 +3713,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.25">
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -3625,7 +3721,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.25">
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
@@ -3633,7 +3729,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.25">
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
@@ -3641,7 +3737,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.25">
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -3649,7 +3745,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.25">
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -3657,7 +3753,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.25">
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -3665,7 +3761,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.25">
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
@@ -3673,7 +3769,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.25">
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
@@ -3681,7 +3777,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.25">
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>30</v>
       </c>
@@ -3689,7 +3785,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.25">
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
@@ -3697,7 +3793,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.25">
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
@@ -3705,7 +3801,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.25">
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
@@ -3713,7 +3809,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.25">
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
@@ -3721,7 +3817,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.25">
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
@@ -3729,7 +3825,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.25">
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
@@ -3737,7 +3833,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.25">
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
@@ -3745,7 +3841,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.25">
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
@@ -3753,7 +3849,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.25">
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
@@ -3761,7 +3857,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.25">
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -3769,7 +3865,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.25">
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -3777,7 +3873,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.25">
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
@@ -3785,7 +3881,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.25">
+    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -3793,7 +3889,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.25">
+    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -3801,7 +3897,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.25">
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -3809,7 +3905,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17.25">
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -3817,7 +3913,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.25">
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
@@ -3825,7 +3921,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.25">
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -3833,7 +3929,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17.25">
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -3841,7 +3937,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.25">
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
@@ -3849,7 +3945,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.25">
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
@@ -3857,7 +3953,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17.25">
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
@@ -3865,7 +3961,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.25">
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
@@ -3873,7 +3969,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.25">
+    <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>32</v>
       </c>
@@ -3881,117 +3977,117 @@
         <v>943</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
@@ -4011,17 +4107,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4035,482 +4131,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>195</v>
       </c>
@@ -4530,17 +4626,17 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4554,22 +4650,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>199</v>
       </c>
@@ -4577,12 +4673,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>201</v>
       </c>
@@ -4590,17 +4686,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -4608,437 +4704,437 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>291</v>
       </c>
@@ -5057,17 +5153,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5081,482 +5177,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>387</v>
       </c>
@@ -5575,17 +5671,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5599,482 +5695,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>483</v>
       </c>
@@ -6093,17 +6189,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6117,482 +6213,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>579</v>
       </c>
@@ -6611,17 +6707,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6635,482 +6731,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>675</v>
       </c>
@@ -7129,17 +7225,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7153,482 +7249,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>771</v>
       </c>
@@ -7647,17 +7743,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7671,482 +7767,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>867</v>
       </c>

--- a/Master/1711/20171103纯合筛选.xlsx
+++ b/Master/1711/20171103纯合筛选.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="123-B1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="952">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2955,9 +2955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAACCATCCAAGCCCTCCGCCGCCGCCGCCCGG</t>
-  </si>
-  <si>
     <t>符合的就是野生稻</t>
     <rPh sb="0" eb="1">
       <t>fu'he</t>
@@ -2973,12 +2970,18 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ccccaccaccgccgccgccgccgaccaaccatccaagccctccgccgccgccgcc</t>
+  </si>
+  <si>
+    <t>CCCCACCACCGCCGCCGCCGCCGACCAACCATCCAAGCCCTCCGCCGCCGCCGCCCGGAAGCGCAAGTCGTCGGCGAAGCCCAAGGCCTCGTCCTCATCCTTACCCACGGTACGACACCATACTCCGACCACCGCTCTCCATCACTTCTCCGATCTCCACTGATCACCAACCCCATGCACAATGCAGGCCACGGCGACGACGAACGCGAGCCCGAAGCGGTCCAAGGTCGCCGCCGGCGCCGGAGACGACGGCGACGGCGACGCCGACGCGGCGGAGGAGAAGCCGGAGCCAGCCAAAGACTACATCCATGTGAGGGCGAGGCGGGGGCAAGCCACCGATAGCCATAGCCTCGCCGAGAGGGTAATTAATCACCTAATTAATT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3019,6 +3022,30 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF343E5E"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3037,10 +3064,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3052,9 +3081,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3329,10 +3361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3348,7 +3380,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3365,7 +3397,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3376,7 +3408,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3387,7 +3419,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3397,14 +3429,17 @@
       <c r="G4" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -3415,7 +3450,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3429,7 +3464,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3437,7 +3472,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3445,7 +3480,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -3453,7 +3488,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3461,7 +3496,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -3469,7 +3504,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -3477,7 +3512,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -3485,7 +3520,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -3493,7 +3528,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -3501,7 +3536,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>

--- a/Master/1711/20171103纯合筛选.xlsx
+++ b/Master/1711/20171103纯合筛选.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1004">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2975,6 +2975,162 @@
   </si>
   <si>
     <t>CCCCACCACCGCCGCCGCCGCCGACCAACCATCCAAGCCCTCCGCCGCCGCCGCCCGGAAGCGCAAGTCGTCGGCGAAGCCCAAGGCCTCGTCCTCATCCTTACCCACGGTACGACACCATACTCCGACCACCGCTCTCCATCACTTCTCCGATCTCCACTGATCACCAACCCCATGCACAATGCAGGCCACGGCGACGACGAACGCGAGCCCGAAGCGGTCCAAGGTCGCCGCCGGCGCCGGAGACGACGGCGACGGCGACGCCGACGCGGCGGAGGAGAAGCCGGAGCCAGCCAAAGACTACATCCATGTGAGGGCGAGGCGGGGGCAAGCCACCGATAGCCATAGCCTCGCCGAGAGGGTAATTAATCACCTAATTAATT</t>
+  </si>
+  <si>
+    <t>TGAGCAAAGC CATGCTGTAG TGGGATCTCT CTCCATCCAT TCCTGCAGTG CCGCCACTGC TATAGCTGCG AGAGCTATAG</t>
+  </si>
+  <si>
+    <t>CTAGAAAAAT ATCAACGTAG GAAGTGGGAG GAGAAGTAGA TGATGGATAC AGATCACACT GAGATAATTA AGGAGGGAGA</t>
+  </si>
+  <si>
+    <t>GGCAGTAGTG GAAGCCATGG CTCTACTCCA GTCTCGGTTC AGGAGGATAT GCGTCTTCTG CGGGAGCAGC CAGGGCAAGA</t>
+  </si>
+  <si>
+    <t>AGAAGAGCTA CCAGGACGCA GCCGTTGAGC TTGGCAAGGA GCTGGTACGT TCTACTATAT TTCTCAATTC TCATATATGT</t>
+  </si>
+  <si>
+    <t>AATCGTCTTG ACAAAGCAGC TGCTTCATTT TTCAACCTTG ATCATGACAT CCTTTCTGAG ATCTTGCTTC TTTAATTTTC</t>
+  </si>
+  <si>
+    <t>TCTCGTTAAT CAAAAACACC ATGGCCATGG AGCTTTTTAC TGATATTCAG CACAACGCGC CTGGTGATAT GTAGGTATAT</t>
+  </si>
+  <si>
+    <t>AGAGAGTACC TGACAAGGTT TTGGGTTTCT TTTCAACGTC GTAATCTTGG AGTAATATAA TTATCAAGCT GTGTAGACGT</t>
+  </si>
+  <si>
+    <t>ACACTTGCTG AACAAGGGCT AAAATTTATC TCTCTATATA TTTAAGTGAC AATATATGCG ACATTACTGC TAGCTGTAGA</t>
+  </si>
+  <si>
+    <t>CGTACTCTTG CAGTGCATGC AGCTTGTTCT TAGTAGAAGA TGAGAGCATA TGCATGAGCT GAGCACAGCA TGTGTAGGTC</t>
+  </si>
+  <si>
+    <t>TGAATTGAAT TTCTGTATCA TGCAGTAAAA CCCACTTGTA TTACAAAGGA GAATGTCATG AGGGCTTGCA CATGAGCTTA</t>
+  </si>
+  <si>
+    <t>TTAATTACTT CACATGAAAG ACAATATGTC TGTCGGTGAA CATGGAATTT TATATTTATG CAGCTTGCAT AGTTCCATAG</t>
+  </si>
+  <si>
+    <t>AAAATGACTT ACTCCCCAGG AAcctagtac tggattaggt tatgatcttg tataaggctg ctatattttg aaacggaggg</t>
+  </si>
+  <si>
+    <t>agtactagcc agcaagttac tACGCGCATT TGCATTTGTA TGGTGACTTT TCGCCGGGAT TTTCGGTGCT CAGCGCATTT</t>
+  </si>
+  <si>
+    <t>TTCTCTATCC ATTTCGAGGC ACGGTATAAA TGCAAAAATG AAATAGACAA GTCGCATGGA TCAGTCTTAA AGGAAACTAT</t>
+  </si>
+  <si>
+    <t>ATATAGTGTG TACTGTATGT AGTAGCTAGA CTACATATTC TAGATCACTT GATGATATAT ATTATAGAAG ACTAGATTCT</t>
+  </si>
+  <si>
+    <t>AGAATGTGGA AATGCATCCC CACTCTCCAT TATTATGGTT TCACCACAGG TAGCAAGGAA CATTGATCTA GTGTATGGTG</t>
+  </si>
+  <si>
+    <t>GAGGAAGTGT GGGGCTCATG GGCCTGGTCT CTCAAGCTGT CTACAATGGA GGGAGGCATG TTATTGGGTA TGTAAAAACG</t>
+  </si>
+  <si>
+    <t>TAATAATTGT TGATCATTCT TCAGCACTGA TACATGGAAA GAATAACTCC GTATATAGTA CACTTTGTAA GATGTCATCT</t>
+  </si>
+  <si>
+    <t>TGTCATGACA ATAGACTTGG ATTATGGTTC CTTTCCTCAG GTGCTACATG CTAGTACTAA TATATAATTT GCCATTTTGT</t>
+  </si>
+  <si>
+    <t>TGTCCCTATA TACACGCAGG GTGATTCCCA AGACTCTTAT GCCTAGAGAG GTAAGCACGC TCATCTCCCT TCCAACAAGT</t>
+  </si>
+  <si>
+    <t>CCTGACATAG TTTATTCACA TGCAACGATT CCCATGAGCT TGACATCATT GTTGCTGATC ACCGGTTAAA ATCTCATCAT</t>
+  </si>
+  <si>
+    <t>TTTCATTGGA AATGTCACTT GAAAAAAAAT CTAGTTAATA CTTATTGATC AAGCATGTTA AGTATTTTGT AAGCATGATA</t>
+  </si>
+  <si>
+    <t>GTATCACTAG ATGAGATTGC TTTTTAGAAA AAAGTCAGTA GCACTGATCT AAAATTATAT CACTTATAGG TATTAGAAAA</t>
+  </si>
+  <si>
+    <t>ACATATATAT ATGGTATGTG GATACATACT ACTACTGGAA AATTATGCTT GTTCATTATC TTTCTTGAAT CTTGATAGTG</t>
+  </si>
+  <si>
+    <t>GAAAGAAGAA TGCGATCTTA TCTGCTTACA AAAGATCGCA TGGAACGTTC AAAGAAAATC TTGTTTTTCC TTTCCCTCGT</t>
+  </si>
+  <si>
+    <t>AGATGAAATC CTGCTGATCT TGACTGCCGC TTCTAGTGGC TGCCCCTTTG TTCTTAAGGC CTTGATCCTT TAAGCAGATG</t>
+  </si>
+  <si>
+    <t>CTGACTTTAT TAATCAGAAA GAAATGTCCC TCACATTTTC TTTTTGTCCC CCAACAACAG CAACATGATT GCCTCTCCTG</t>
+  </si>
+  <si>
+    <t>AACCTTTGCT GCGTTGCTCT GATTAAACTA TACATGCTAC CACTCCTGTT AAACAGTGCT CATCCCCTTG CTCGTTGGCT</t>
+  </si>
+  <si>
+    <t>AGTTTTTGCA TGCTCTCTTA CTTTTTGTGG AGCAGAAAGC TGCAGGGTGC TCCTGTGTCT GTGCGAGAGG CTTTGTCACA</t>
+  </si>
+  <si>
+    <t>TACGCATGCG TGTTTGCTTG TGTGTGCAGA TTACGGGTGA GACAGTAGGG GAGGTGAAAG CAGTGGCAGA TATGCATCAG</t>
+  </si>
+  <si>
+    <t>AGGAAGGCTG AGATGGCCAG GCAATCTGAT GCGTTCATAG CACTGCCTGG TTAGTCTCTC TCACCACCTG GATATATTTT</t>
+  </si>
+  <si>
+    <t>TTTTAAGATA ATGAAACCAC CTGAATATAT AGCTTCATCA ACTTGTGTTG AGTCGACATG TACTAATTTG CTTTACTTTT</t>
+  </si>
+  <si>
+    <t>GTTGTCAATT GCCTTGTCAT ATTTTTTCCT TTATCATGTT ATGATACGTG GCTAGTGGAA GTGTGAGTGG AAAGTTGCGT</t>
+  </si>
+  <si>
+    <t>AAAAGCAAGC ACAAGCAGGG TGCATGAGTT TGACTTTGAC CTGCTAAATT GGCTTGCATG CATGCTGCTG CCGCCCAGTC</t>
+  </si>
+  <si>
+    <t>GGTGCAGAAT CCTTCTTTAT ACGCATGAGC TGGTCGATCA GATTGTCAGA TACTCGGATA AGAGAGGACC TGTTGAGCCA</t>
+  </si>
+  <si>
+    <t>CTTCGTGCTG ATATTTTCAG TATCGTTCGT AGCTTATCTT TTTCAGTTAT TTGATTCTTT TTCCTAATCA TCAGCCAACT</t>
+  </si>
+  <si>
+    <t>GAATTTGTGA TTCGCCCATC AGTCTTAAAA AAAAATTGTG ATACGCCTTG TTAGCAAGGA CCAAATTTGG CCCATCCCCG</t>
+  </si>
+  <si>
+    <t>AGGATGGGCT GGGAATTTTA ACTAGATTCA GGACCATCCT AGTGAAATGG GCTAGTATTT TTTCTGCCTT CTCAAATCAA</t>
+  </si>
+  <si>
+    <t>ACCTGACACA ACTTCATACT ACTATGGATT TATGAGGTTC AAACTCAGCC TAGAAATATT CTGAAGATAA TGCAAACATC</t>
+  </si>
+  <si>
+    <t>CGACAATTAT ACCCAGGCAG ATGCTGTATC CGCAGATTCC CTCAATCAAT ACTCGTATTT CTGGAGGAGA GAGAGATCCA</t>
+  </si>
+  <si>
+    <t>GAGCGAGCAC TGTTCATTAC TTAAATTTGT TTACTGCAGG TGGGTATGGA ACACTTGAAG AGCTCCTGGA AGTAATTGCC</t>
+  </si>
+  <si>
+    <t>TGGGCTCAGC TCGGCATTCA CGACAAGCCG GTACATACTG AAATAGTTCA TGATCAGCTT TTGCACATGC AACATATGTA</t>
+  </si>
+  <si>
+    <t>CACGCACTGA TGAACAATGC ACGTATATAC ACGGAGAGCC AAAACTTTTT TTTACCTTGG CTTAATGTGG ACGATCGATG</t>
+  </si>
+  <si>
+    <t>CTACGTACAG GTTGGCCTGC TAAATGTGGA CGGCTACTAC AACTCTCTGC TGTCGTTCAT CGATAAAGCT GTGGAGGAAG</t>
+  </si>
+  <si>
+    <t>AGTTCATCAG CCCCTCTGCG CGCCATATCA TCGTGTTAGC TCCAACACCA AAAGAACTTC TCGAGAAGCT AGAGGTGTAT</t>
+  </si>
+  <si>
+    <t>ATACTTATAT ATATAATCTA TCGATTTTTC TGATGCATCA TGGCACACTG CAAAGGACAG AAGAAAACGC CGGTTTCATC</t>
+  </si>
+  <si>
+    <t>GGTGAATGAG AGATCGAGCT GAACTTTCCT CTTGCTCGCA TGCAGGCGTA CTCCCCTCGG CATGACAAGG TCGTGCCGAA</t>
+  </si>
+  <si>
+    <t>GATGCAGTGG GAGATGGAGA AGATGAGCTA CTGCAAGAGC TGCGAGATCC CTGGCCTGAA AGAAGGCAAC AAGGCGACCA</t>
+  </si>
+  <si>
+    <t>TCCAAGCACA GCGAGGAAGC ATGCTCTGAA ATTTACTGTA GCACTAGCTA GCTATAGCTT AGCCAATGCG TGCAGCAAGA</t>
+  </si>
+  <si>
+    <t>AGATTCAAAA CTTCTTGGTG CACATGAACT GCAACTTTTA ATTCATGTAA CTCGGTTCAT TAGAAGGCAA TTGATCACTG</t>
+  </si>
+  <si>
+    <t>ATCATGCAAT TAGTCGTGTA CGTAGCCCTA AGAATGAAAT CATCAGTAAG ATTTGTAAAT CACAGAGCTC CAGAGCAGCA</t>
+  </si>
+  <si>
+    <t>GACTGACATA AAACGATATG TGGGCT</t>
   </si>
 </sst>
 </file>
@@ -3361,10 +3517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76:G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4017,114 +4173,333 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F76" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G77" s="6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G78" s="6" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G79" s="6" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G80" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G81" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G82" s="6" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G83" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G84" s="6" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G85" s="6" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G86" s="6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G87" s="6" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G88" s="6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G89" s="6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G90" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G91" s="6" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G92" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G93" s="6" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G94" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G95" s="6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G96" s="6" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G98" s="6" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G99" s="6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G100" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G101" s="6" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G102" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G103" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G104" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G105" s="6" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G106" s="6" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G107" s="6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G108" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G109" s="6" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G110" s="6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G111" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G112" s="6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G113" s="6" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G114" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G115" s="6" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G116" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G117" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G118" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G119" s="6" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="120" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G120" s="6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="121" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G121" s="6" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="122" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G122" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="123" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G123" s="6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="124" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G124" s="6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G125" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="126" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G126" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="127" spans="7:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="G127" s="6" t="s">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>

--- a/Master/1711/20171103纯合筛选.xlsx
+++ b/Master/1711/20171103纯合筛选.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="123-B1" sheetId="1" r:id="rId1"/>
     <sheet name="123-B2" sheetId="2" r:id="rId2"/>
     <sheet name="123-B3" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId4"/>
-    <sheet name="工作表5" sheetId="5" r:id="rId5"/>
-    <sheet name="工作表6" sheetId="6" r:id="rId6"/>
-    <sheet name="工作表7" sheetId="7" r:id="rId7"/>
-    <sheet name="工作表8" sheetId="8" r:id="rId8"/>
-    <sheet name="工作表9" sheetId="9" r:id="rId9"/>
+    <sheet name="a1g1-b1" sheetId="4" r:id="rId4"/>
+    <sheet name="a1g1-b2" sheetId="5" r:id="rId5"/>
+    <sheet name="a1g1-b3" sheetId="6" r:id="rId6"/>
+    <sheet name="a2g1-b1" sheetId="7" r:id="rId7"/>
+    <sheet name="a2g1-b2" sheetId="8" r:id="rId8"/>
+    <sheet name="a2g1-b3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="1006">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3131,6 +3131,14 @@
   </si>
   <si>
     <t>GACTGACATA AAACGATATG TGGGCT</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3519,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76:G127"/>
+    <sheetView topLeftCell="A89" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3599,6 +3607,9 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>868</v>
       </c>
@@ -3624,6 +3635,9 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>875</v>
       </c>
@@ -3632,6 +3646,9 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>876</v>
       </c>
@@ -3680,6 +3697,9 @@
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G14" s="6" t="s">
         <v>882</v>
       </c>
@@ -3696,6 +3716,9 @@
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G16" s="6" t="s">
         <v>884</v>
       </c>
@@ -3712,6 +3735,9 @@
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G18" s="6" t="s">
         <v>886</v>
       </c>
@@ -3744,6 +3770,9 @@
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G22" s="6" t="s">
         <v>890</v>
       </c>
@@ -3780,6 +3809,9 @@
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B26" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G26" s="6" t="s">
         <v>895</v>
       </c>
@@ -3796,6 +3828,9 @@
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G28" s="6" t="s">
         <v>897</v>
       </c>
@@ -3804,6 +3839,9 @@
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G29" s="6" t="s">
         <v>898</v>
       </c>
@@ -3836,6 +3874,9 @@
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G33" s="6" t="s">
         <v>902</v>
       </c>
@@ -3900,6 +3941,9 @@
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B41" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G41" s="6" t="s">
         <v>910</v>
       </c>
@@ -3932,6 +3976,9 @@
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G45" s="6" t="s">
         <v>914</v>
       </c>
@@ -3948,6 +3995,9 @@
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G47" s="6" t="s">
         <v>916</v>
       </c>
@@ -3956,6 +4006,9 @@
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G48" s="6" t="s">
         <v>917</v>
       </c>
@@ -3980,6 +4033,9 @@
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G51" s="6" t="s">
         <v>920</v>
       </c>
@@ -3996,6 +4052,12 @@
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G53" s="6" t="s">
         <v>922</v>
       </c>
@@ -4004,6 +4066,15 @@
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B54" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G54" s="6" t="s">
         <v>923</v>
       </c>
@@ -4028,6 +4099,9 @@
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G57" s="6" t="s">
         <v>926</v>
       </c>
@@ -4036,6 +4110,9 @@
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G58" s="6" t="s">
         <v>927</v>
       </c>
@@ -4052,6 +4129,9 @@
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G60" s="6" t="s">
         <v>929</v>
       </c>
@@ -4060,6 +4140,9 @@
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G61" s="6" t="s">
         <v>930</v>
       </c>
@@ -4076,6 +4159,9 @@
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G63" s="6" t="s">
         <v>932</v>
       </c>
@@ -4084,6 +4170,9 @@
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="C64" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G64" s="6" t="s">
         <v>933</v>
       </c>
@@ -4092,6 +4181,9 @@
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G65" s="6" t="s">
         <v>934</v>
       </c>
@@ -4108,6 +4200,9 @@
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G67" s="6" t="s">
         <v>936</v>
       </c>
@@ -4132,6 +4227,12 @@
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C70" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G70" s="6" t="s">
         <v>939</v>
       </c>
@@ -4156,6 +4257,9 @@
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G73" s="6" t="s">
         <v>942</v>
       </c>
@@ -4172,11 +4276,17 @@
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="B75" s="2" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B76" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="F76" s="2" t="s">
         <v>872</v>
       </c>
@@ -4188,6 +4298,9 @@
       <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G77" s="6" t="s">
         <v>953</v>
       </c>
@@ -4204,6 +4317,15 @@
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="C79" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="G79" s="6" t="s">
         <v>955</v>
       </c>
@@ -4212,6 +4334,9 @@
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G80" s="6" t="s">
         <v>956</v>
       </c>
@@ -4228,6 +4353,12 @@
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="B82" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G82" s="6" t="s">
         <v>958</v>
       </c>
@@ -4236,6 +4367,12 @@
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="B83" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G83" s="6" t="s">
         <v>959</v>
       </c>
@@ -4284,6 +4421,15 @@
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="B89" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G89" s="6" t="s">
         <v>965</v>
       </c>
@@ -4292,6 +4438,9 @@
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="C90" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G90" s="6" t="s">
         <v>966</v>
       </c>
@@ -4308,6 +4457,9 @@
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G92" s="6" t="s">
         <v>968</v>
       </c>
@@ -4316,6 +4468,9 @@
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="C93" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G93" s="6" t="s">
         <v>969</v>
       </c>
@@ -4324,6 +4479,9 @@
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="C94" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="G94" s="6" t="s">
         <v>970</v>
       </c>
@@ -4347,6 +4505,9 @@
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1004</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>973</v>
@@ -4513,8 +4674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A98" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4545,6 +4706,9 @@
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -4560,11 +4724,17 @@
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -4585,6 +4755,9 @@
       <c r="A10" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -4600,6 +4773,9 @@
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -4616,409 +4792,472 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>195</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5032,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5069,18 +5308,30 @@
       <c r="A3" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1">
         <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5092,9 +5343,6 @@
       <c r="A7" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -5105,14 +5353,14 @@
       <c r="A9" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5138,408 +5386,516 @@
       <c r="A15" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>290</v>
       </c>
@@ -5557,507 +5913,567 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>386</v>
       </c>
@@ -6075,507 +6491,543 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A86" zoomScale="221" zoomScaleNormal="221" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>482</v>
       </c>
@@ -6593,507 +7045,546 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>578</v>
       </c>
@@ -7111,509 +7602,613 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D89" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>674</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -7629,507 +8224,575 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A82" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>770</v>
       </c>
@@ -8147,507 +8810,632 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A83" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>866</v>
       </c>

--- a/Master/1711/20171103纯合筛选.xlsx
+++ b/Master/1711/20171103纯合筛选.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="123-B1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="1006">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3527,7 +3527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
@@ -5915,7 +5915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
@@ -7047,8 +7047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A89" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7096,11 +7096,17 @@
       <c r="A6" s="1" t="s">
         <v>488</v>
       </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>489</v>
       </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -7116,6 +7122,9 @@
       <c r="A10" s="1" t="s">
         <v>492</v>
       </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -7156,65 +7165,77 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>500</v>
       </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>510</v>
       </c>
@@ -7222,22 +7243,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>514</v>
       </c>
@@ -7245,55 +7269,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>520</v>
       </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>524</v>
       </c>
@@ -7301,115 +7331,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>531</v>
       </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>546</v>
       </c>
@@ -7441,6 +7489,9 @@
       <c r="A69" s="1" t="s">
         <v>551</v>
       </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -7461,11 +7512,17 @@
       <c r="A73" s="1" t="s">
         <v>555</v>
       </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>556</v>
       </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -7507,6 +7564,9 @@
       <c r="A81" s="1" t="s">
         <v>563</v>
       </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -7550,6 +7610,9 @@
       <c r="A89" s="1" t="s">
         <v>571</v>
       </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
@@ -7587,6 +7650,9 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>578</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">

--- a/Master/1711/20171103纯合筛选.xlsx
+++ b/Master/1711/20171103纯合筛选.xlsx
@@ -2677,9 +2677,6 @@
   <si>
     <t>AN2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GGCGGCAGGCTGTCCCGTGTCTCCAGCAGCAAGTCCCTCGGCGGCGCCGCCGCGGCATTGGACAGCTCCGAGGCCGACATGAACCCCACCACCGCCGCCGCCGCCGACCAACCATCCAAGCCCTCCGCCGCCGCCGCCCGGAAGCGCAAGTCGTCGGCGAAGCCCAAGGCCTCGTCCTCATCCTTACCCACGGTACGACACCATACTCCGACCACCGCTCTCCATCACTTCTCCGATCTCCACTGATCACCAACCCCATGCACAATGCAGGCCACGGCGACGACGAACGCGAGCCCGAAGCGGTCCAAGGTCGCCGCCGGCGCCGGAGACGACGGCGACGGCGACGCCGACGCGGCGGAGGAGAAGCCGGAGCCAGCCAAAGACTACATCCATGTGAGGGCGAGGCGGGGGCAAGCCACCGATAGCCATAGCCTCGCCGAGAGGGTAATTAATCACCTAATTAATTAAATCCTAATTAGCTTTTTTTGCAAGTACTACACTAATCCCAAAATTAATCACAATGCGAGGGCACCCCCTAATTGCGCACCGTGTTACTAATTGCTCTACTTATTGAGTTGCAAGGACGCTTAATTATTATTAAAATTTTAATTAGCTTTGTGTTTTGTTTAATATTGGTAGGTGAGGAGGGAGAGGATAAGCGAGAGGATGAAGCTTCTGCAGTCGCTCGTGCCAGGCTGCAACAAGGTAGTATGAACACAAACACACTCCAGCGGCTAATCTCATTCTTAAATTTCCTCCAAATTCATGTATCCAAACAAGTGGCTTCTTTTTTTTCCCGCTCCAAATTACACTCAAAATTTAAAATTCTAGTTTTAGAGTTTAATTAATATCAAAAGCAGTTGTACTAATTTGTAATATTAGAATTCCGTTATACGGGGCAGTACTGAAAATTAGTGGTCAAAAATGTATTTTCGAGGACGCGCATTAAGGGGGAATAGTAACCTAACGTACAAAACGGACTTGCCTGTGTGGCAATAATTAAGTTTAATATATATACAATTACTTTAGTTTCAGTATTGCCTAGAGCTAGGAGTTGGACTTTTTGCTACTGGGATAGATAAAATTAAGTAAAAAAATAATAATCTTTTTTGTACCGAAAGTGTGAGCACTAACTGCGGTGGTTAGTCTATGCAGCCAGTAGTAATTTTGACCGTAATGCATGTAAGCTACTAGTAGTACTCCTAAGTTAAGCTCCCAGTGGTCCAAGAGGATATAATAATAATTGATTAGTTAATAATCTGAGAGGCTCTTGCTCTGTACTTAAACTAATCAAACCGGCTAATCAATTGCAAGGTCCTGGTGGTTTAGGTGGTGCGCACGATTATTTTAGTTGCCCCAATTATTGCCACGGTAGTGATGCCACCGCCGGTGGTCAAATTTGGGTTGAATTTTAAATTTGGTTGATAACTTTTCTTACCTTTTTAAAATTTATTGCTGAGTTTTTTTCTAGATGATTGTTTATTGTTTTTGTTTTGTTAATTAGTTAGCAAATAAATGTGAATGTTGCGGTGTGCAGATCACCGGCAAGGCTCTCATGCTGGACGAGATCATCAACTATGTGCAGTCGCTGCAGCGTCAGGTCGAGGTACCAATGCAAGCATTTGCTTTAATAGTGTGCTAAATGAACTTGTTTTAATGACAATAAATATGTTGGAGAAAAATGTTGTTGTGTTCTCCTTCTGTCGTCCTAGCTAGCTCTTATTTGAAGTTATGTATGAAATTAAGCCCAAAAGCTAAATTTTGACATTGGTGTGTCTCACAGTTTTTGTCCATGAAGTTGGCGACCATGAATCCTCAGCTGGACTTTGACAGCCATTACATGCCTTCCAAAGATGTAAGTATAGCATCTGAAAACACTTTTATCTGATCTAGAGAGACAGTTGACACAGAGTACTATTACGATATTGTCCCTCAATTTGCAAATGTTATATTCGCCGCACTCGGGGTATCATTTTCAGATGAGCCATATGCCAGTACCCGCATACCCGTCAAGCGATCCGACCACCACCACCGCGTTCTCCTACACCGGCTCACCCGCCACTGCTGATCCATTCACCGTCTACAACTGCTGGGAGCTCGACCTCCACACCGCTATGCAAATGGGAGCCACCACCGGACTCAGCCAAGACGGTCCAATCGCAACGATGGCACCCTCTCCCTCGCCATTGCCGCACCATCCTCCTCTTCACGGCTTCTACGGTAAGTGAAATCGAACCACCACATCTCCTTACATCCCTAACAAATTATACATGAATTTTTAAAAATACTCAATTTTTTTTTAAAAAAAAAGTTCAAAAATAAGATTATTTTTTTTACTGGACTACAGTAGTGGAGTGGTGGTGGTCATACTACTCCAGTACGGTAGGTTTGTTTGTCCAAGTTTGTTGAGTTTCGCTGTTGGTGGTAATTGGGCGCAGGGGGGCAGCAGCAGCAGGGGACGACAGTAAACCACATGAAGGCCGAGCCATAA</t>
   </si>
   <si>
     <t>GTCCTGCCGC CCTGGAAATT GTGCCTATGT AAAGTGTAGC CGGCCACACG TTGTTTCTTC CTTTCCTTCA CATCTCACAG</t>
@@ -3140,12 +3137,38 @@
     <t>G1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>TACTTCTCTATTCTCTTTCAATCTTTAAAGTTTGTGTAGATGTTACCCTTATATGAGGGGTGATTTCTCCTCTCTTATCTTCTCTCCTACACATCACCATTTAAACCTACATAACACCTTGTGTCTACTATTAAGAAGCTTATAGTACTTTCTCTACCAACAAGATACTCCATTCGTCCTAAAATATAAACATTTCTAAAAATTTTTTAAAAAAAATTAAGCATGTATATGAAATTATAGGTTGAAAGTTATGATTGATTTGAGAAGAGAAGATAGATGAAGAAACTAAATGAGAAAATGTTGTGATTGGTTAAGATGGGGTAAGTGGAGAAAATGGGACGGAGGACTAAGACATTATTGGTTTTAGATATTACGTTTGACAATTCATTTCCATTAAAAAAAATTATATTATCATTTTTATTGTAACTTGTTTTACAACTAATCATGCTCTAGATGTGACTTATCTTTTCGTATTTGTGCTAAATTTTTAATAAAATAAATAGTCAAAATGTTATGTCTACAAATCAGCAGCATATCATACATTTATAAATAATGGGAGTACAAGGAAAGATAATTTATTGT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TCAATGCAACCTTCCATTACCTTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AAAAAATCATTTGCCATATGTACTTCCATCTAGAACACTCCTGCTTCTTTTTACCTTCAGCCTGGTCATAGTGATTTTCTATGTAACGTGATCAGAGGACAAACTAGCTTTGTCCCCCCGCCAATATTTAACATTTTAGTTCAAATAAAACAACCCACCCACCAAATCCAAATTATTAAGAATGCCTCTTCCCCCTCTAAAAACAGCATTCATCCTCGTGCAACATATGCAAATTAATTCGTGATTTCTATATAATTCTTTCGTTATACCCATAACTTTGATTTGATCATGCAAGAACGTACTGTGTGTCAATAAAACAAATGGCACGGGGGTAGCTTAGAGCATTATTGGAGTACTCTTATATAGGAGTTAGTAGTGAGTGATATATCTGTTCTAATTAAGCTCCATCTTATTGGGTTAAGGGTT</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3209,6 +3232,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3527,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3580,7 +3610,7 @@
         <v>871</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>873</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3588,19 +3618,19 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3608,13 +3638,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>868</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3622,13 +3652,13 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3636,10 +3666,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3647,10 +3677,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3658,7 +3688,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3666,7 +3696,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3674,7 +3704,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3682,7 +3712,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3690,7 +3720,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3698,10 +3728,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3709,7 +3739,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -3717,10 +3747,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3728,7 +3758,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3736,10 +3766,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3747,7 +3777,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3755,7 +3785,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3763,7 +3793,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3771,10 +3801,10 @@
         <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3782,7 +3812,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3796,13 +3826,13 @@
         <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>894</v>
-      </c>
       <c r="O25" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3810,10 +3840,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3821,7 +3851,7 @@
         <v>34</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3829,10 +3859,10 @@
         <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3840,10 +3870,10 @@
         <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3851,7 +3881,7 @@
         <v>37</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3859,7 +3889,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -3867,7 +3897,7 @@
         <v>39</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3875,10 +3905,10 @@
         <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3886,7 +3916,7 @@
         <v>41</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3894,7 +3924,7 @@
         <v>42</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3902,7 +3932,7 @@
         <v>43</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3910,7 +3940,7 @@
         <v>44</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3918,7 +3948,7 @@
         <v>29</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3926,7 +3956,7 @@
         <v>45</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3934,7 +3964,7 @@
         <v>46</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3942,10 +3972,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3953,7 +3983,7 @@
         <v>48</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3961,7 +3991,7 @@
         <v>49</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3969,7 +3999,7 @@
         <v>50</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3977,10 +4007,10 @@
         <v>51</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3988,7 +4018,7 @@
         <v>52</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3996,10 +4026,10 @@
         <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4007,10 +4037,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4018,7 +4048,7 @@
         <v>55</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4026,7 +4056,7 @@
         <v>30</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4034,10 +4064,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4045,7 +4075,7 @@
         <v>57</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4053,13 +4083,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4067,16 +4097,16 @@
         <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4084,7 +4114,7 @@
         <v>60</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4092,7 +4122,7 @@
         <v>61</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4100,10 +4130,10 @@
         <v>62</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4111,10 +4141,10 @@
         <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4122,7 +4152,7 @@
         <v>64</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4130,10 +4160,10 @@
         <v>65</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4141,10 +4171,10 @@
         <v>66</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4152,7 +4182,7 @@
         <v>31</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4160,10 +4190,10 @@
         <v>67</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4171,10 +4201,10 @@
         <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4182,10 +4212,10 @@
         <v>69</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4193,7 +4223,7 @@
         <v>70</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4201,10 +4231,10 @@
         <v>71</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4212,7 +4242,7 @@
         <v>72</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4220,7 +4250,7 @@
         <v>73</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4228,13 +4258,13 @@
         <v>74</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4242,7 +4272,7 @@
         <v>75</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4250,7 +4280,7 @@
         <v>76</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4258,10 +4288,10 @@
         <v>77</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4269,7 +4299,7 @@
         <v>32</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -4277,7 +4307,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4285,13 +4315,13 @@
         <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>872</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4299,10 +4329,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4310,7 +4340,7 @@
         <v>81</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4318,16 +4348,16 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4335,10 +4365,10 @@
         <v>83</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4346,7 +4376,7 @@
         <v>84</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4354,13 +4384,13 @@
         <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4368,13 +4398,13 @@
         <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4382,7 +4412,7 @@
         <v>87</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4390,7 +4420,7 @@
         <v>88</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4398,7 +4428,7 @@
         <v>33</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4406,7 +4436,7 @@
         <v>89</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4414,7 +4444,7 @@
         <v>90</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4422,16 +4452,16 @@
         <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4439,10 +4469,10 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4450,7 +4480,7 @@
         <v>93</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4458,10 +4488,10 @@
         <v>94</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4469,10 +4499,10 @@
         <v>95</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4480,10 +4510,10 @@
         <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4491,7 +4521,7 @@
         <v>97</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4499,7 +4529,7 @@
         <v>98</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4507,160 +4537,160 @@
         <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G98" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G99" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G100" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G101" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G102" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G103" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G104" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G105" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G106" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G107" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G108" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G109" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G110" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G111" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G112" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="113" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G113" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="114" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G114" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="115" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G115" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="116" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G116" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="117" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G117" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="118" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G118" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="119" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G119" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="120" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G120" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="121" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G121" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="122" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G122" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="123" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G123" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="124" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G124" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="125" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G125" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="126" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G126" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="127" spans="7:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G127" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -7688,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -8310,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -8896,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>

--- a/Master/1711/20171103纯合筛选.xlsx
+++ b/Master/1711/20171103纯合筛选.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="123-B1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="1008">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3161,6 +3161,14 @@
       </rPr>
       <t>AAAAAATCATTTGCCATATGTACTTCCATCTAGAACACTCCTGCTTCTTTTTACCTTCAGCCTGGTCATAGTGATTTTCTATGTAACGTGATCAGAGGACAAACTAGCTTTGTCCCCCCGCCAATATTTAACATTTTAGTTCAAATAAAACAACCCACCCACCAAATCCAAATTATTAAGAATGCCTCTTCCCCCTCTAAAAACAGCATTCATCCTCGTGCAACATATGCAAATTAATTCGTGATTTCTATATAATTCTTTCGTTATACCCATAACTTTGATTTGATCATGCAAGAACGTACTGTGTGTCAATAAAACAAATGGCACGGGGGTAGCTTAGAGCATTATTGGAGTACTCTTATATAGGAGTTAGTAGTGAGTGATATATCTGTTCTAATTAAGCTCCATCTTATTGGGTTAAGGGTT</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3557,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A78" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3746,6 +3754,9 @@
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>1003</v>
       </c>
@@ -3870,7 +3881,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>897</v>
@@ -3907,6 +3918,9 @@
       <c r="B33" s="2" t="s">
         <v>1003</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="G33" s="6" t="s">
         <v>901</v>
       </c>
@@ -3972,7 +3986,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>909</v>
@@ -4025,6 +4039,9 @@
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="D47" s="2" t="s">
         <v>1003</v>
       </c>
@@ -4037,7 +4054,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>916</v>
@@ -4129,6 +4146,9 @@
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="D57" s="2" t="s">
         <v>1003</v>
       </c>
@@ -4181,6 +4201,9 @@
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="G62" s="6" t="s">
         <v>930</v>
       </c>
@@ -4201,7 +4224,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>932</v>
@@ -4230,6 +4253,9 @@
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="C67" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>1003</v>
       </c>
@@ -4258,7 +4284,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>1003</v>
@@ -4339,6 +4365,9 @@
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="C78" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="G78" s="6" t="s">
         <v>953</v>
       </c>
@@ -4348,7 +4377,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>1003</v>
@@ -4364,6 +4393,9 @@
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="C80" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="D80" s="2" t="s">
         <v>1003</v>
       </c>
@@ -4375,6 +4407,9 @@
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="C81" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="G81" s="6" t="s">
         <v>956</v>
       </c>
@@ -4455,7 +4490,7 @@
         <v>1003</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>91</v>
@@ -4468,8 +4503,11 @@
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="B90" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="C90" s="2" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>965</v>
@@ -4499,7 +4537,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>968</v>
@@ -4510,7 +4548,7 @@
         <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>969</v>
@@ -4537,7 +4575,7 @@
         <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>972</v>
@@ -4704,8 +4742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A72" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4736,6 +4774,9 @@
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
@@ -4749,6 +4790,9 @@
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -4762,6 +4806,9 @@
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
@@ -4770,16 +4817,28 @@
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -4816,41 +4875,71 @@
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -4867,11 +4956,17 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -4886,6 +4981,9 @@
       <c r="A26" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -4929,6 +5027,12 @@
       <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -4944,6 +5048,9 @@
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
@@ -5003,6 +5110,9 @@
       <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -5011,16 +5121,31 @@
       <c r="B48" s="1">
         <v>1</v>
       </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -5049,6 +5174,9 @@
       <c r="A55" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -5075,6 +5203,9 @@
       <c r="A59" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -5083,11 +5214,17 @@
       <c r="B60" s="1">
         <v>1</v>
       </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
       <c r="C61" s="1">
         <v>1</v>
       </c>
@@ -5096,6 +5233,9 @@
       <c r="A62" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -5142,11 +5282,17 @@
       <c r="A70" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -5162,6 +5308,9 @@
       <c r="A74" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
       <c r="D74" s="1">
         <v>1</v>
       </c>
@@ -5185,11 +5334,17 @@
       <c r="A78" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -5210,6 +5365,9 @@
       <c r="A83" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -5220,16 +5378,25 @@
       <c r="A85" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
       <c r="D87" s="1">
         <v>1</v>
       </c>
@@ -5243,6 +5410,9 @@
       <c r="A89" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
@@ -5263,6 +5433,9 @@
       <c r="A93" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
       <c r="D93" s="1">
         <v>1</v>
       </c>
@@ -5276,6 +5449,9 @@
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -5286,8 +5462,11 @@
       <c r="A97" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
       <c r="C97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5301,8 +5480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5346,6 +5525,9 @@
       <c r="A4" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -5411,6 +5593,9 @@
       <c r="A14" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -5427,6 +5612,9 @@
       <c r="A16" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -5480,6 +5668,9 @@
       <c r="A23" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -5533,6 +5724,9 @@
       <c r="A30" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -5600,6 +5794,9 @@
       <c r="A41" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
@@ -5613,11 +5810,17 @@
       <c r="A43" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -5712,6 +5915,9 @@
       <c r="A61" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -5795,6 +6001,9 @@
       <c r="A74" s="1" t="s">
         <v>268</v>
       </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -5810,6 +6019,9 @@
       <c r="A77" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
       <c r="D77" s="1">
         <v>1</v>
       </c>
@@ -5826,11 +6038,17 @@
       <c r="A79" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -5887,6 +6105,9 @@
       <c r="A90" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
       <c r="D90" s="1">
         <v>1</v>
       </c>
@@ -5908,6 +6129,9 @@
       <c r="A93" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
       <c r="D93" s="1">
         <v>1</v>
       </c>
@@ -5930,9 +6154,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>291</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5945,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A84" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6004,6 +6231,9 @@
       <c r="A8" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
@@ -6035,6 +6265,9 @@
       <c r="A13" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
@@ -6077,6 +6310,9 @@
       <c r="A19" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -6095,16 +6331,25 @@
       <c r="A22" s="1" t="s">
         <v>312</v>
       </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>314</v>
       </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -6130,6 +6375,9 @@
       <c r="A29" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
@@ -6179,6 +6427,9 @@
       <c r="A37" s="1" t="s">
         <v>327</v>
       </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -6199,6 +6450,9 @@
       <c r="A41" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
@@ -6207,6 +6461,9 @@
       <c r="A42" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -6217,11 +6474,17 @@
       <c r="A44" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -6248,11 +6511,17 @@
       <c r="A49" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
@@ -6261,6 +6530,9 @@
       <c r="A51" s="1" t="s">
         <v>341</v>
       </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -6276,6 +6548,9 @@
       <c r="A54" s="1" t="s">
         <v>344</v>
       </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
@@ -6284,16 +6559,25 @@
       <c r="A55" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
@@ -6312,6 +6596,9 @@
       <c r="A60" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
@@ -6320,11 +6607,17 @@
       <c r="A61" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
@@ -6338,6 +6631,9 @@
       <c r="A64" s="1" t="s">
         <v>354</v>
       </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -6358,6 +6654,9 @@
       <c r="A68" s="1" t="s">
         <v>358</v>
       </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -6406,6 +6705,9 @@
       <c r="A77" s="1" t="s">
         <v>367</v>
       </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -6436,16 +6738,25 @@
       <c r="A83" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>374</v>
       </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>375</v>
       </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -6456,6 +6767,9 @@
       <c r="A87" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -6469,11 +6783,17 @@
       <c r="A89" s="1" t="s">
         <v>379</v>
       </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>380</v>
       </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
@@ -6494,6 +6814,9 @@
       <c r="A94" s="1" t="s">
         <v>384</v>
       </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
       <c r="C94" s="1">
         <v>1</v>
       </c>
@@ -6502,10 +6825,16 @@
       <c r="A95" s="1" t="s">
         <v>385</v>
       </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>386</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -6523,8 +6852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="221" zoomScaleNormal="221" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A80" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6557,6 +6886,9 @@
       <c r="A3" s="1" t="s">
         <v>389</v>
       </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6572,6 +6904,9 @@
       <c r="A6" s="1" t="s">
         <v>392</v>
       </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -6587,6 +6922,9 @@
       <c r="A9" s="1" t="s">
         <v>395</v>
       </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -6612,6 +6950,9 @@
       <c r="A14" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -6622,6 +6963,9 @@
       <c r="A16" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -6637,6 +6981,9 @@
       <c r="A19" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -6647,11 +6994,17 @@
       <c r="A21" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -6662,6 +7015,9 @@
       <c r="A24" s="1" t="s">
         <v>410</v>
       </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -6670,6 +7026,9 @@
       <c r="A25" s="1" t="s">
         <v>411</v>
       </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -6680,6 +7039,9 @@
       <c r="A27" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -6690,6 +7052,9 @@
       <c r="A29" s="1" t="s">
         <v>415</v>
       </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
@@ -6708,6 +7073,9 @@
       <c r="A32" s="1" t="s">
         <v>418</v>
       </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -6718,6 +7086,9 @@
       <c r="A34" s="1" t="s">
         <v>420</v>
       </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -6728,6 +7099,9 @@
       <c r="A36" s="1" t="s">
         <v>422</v>
       </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -6756,6 +7130,9 @@
       <c r="A41" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
@@ -6764,6 +7141,9 @@
       <c r="A42" s="1" t="s">
         <v>428</v>
       </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -6774,16 +7154,25 @@
       <c r="A44" s="1" t="s">
         <v>430</v>
       </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>431</v>
       </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>432</v>
       </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
@@ -6797,11 +7186,17 @@
       <c r="A48" s="1" t="s">
         <v>434</v>
       </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
@@ -6810,6 +7205,9 @@
       <c r="A50" s="1" t="s">
         <v>436</v>
       </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -6825,11 +7223,17 @@
       <c r="A53" s="1" t="s">
         <v>439</v>
       </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -6840,6 +7244,9 @@
       <c r="A56" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -6865,6 +7272,9 @@
       <c r="A61" s="1" t="s">
         <v>447</v>
       </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -6885,6 +7295,9 @@
       <c r="A65" s="1" t="s">
         <v>451</v>
       </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
@@ -6893,6 +7306,9 @@
       <c r="A66" s="1" t="s">
         <v>452</v>
       </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
       <c r="C66" s="1">
         <v>1</v>
       </c>
@@ -6906,11 +7322,17 @@
       <c r="A68" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>455</v>
       </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -6924,16 +7346,25 @@
       <c r="A71" s="1" t="s">
         <v>457</v>
       </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>458</v>
       </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>459</v>
       </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -6947,11 +7378,17 @@
       <c r="A75" s="1" t="s">
         <v>461</v>
       </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>462</v>
       </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -6962,11 +7399,17 @@
       <c r="A78" s="1" t="s">
         <v>464</v>
       </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -6982,11 +7425,17 @@
       <c r="A82" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -6997,11 +7446,17 @@
       <c r="A85" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>472</v>
       </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
@@ -7010,11 +7465,17 @@
       <c r="A87" s="1" t="s">
         <v>473</v>
       </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>474</v>
       </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
       <c r="C88" s="1">
         <v>1</v>
       </c>
@@ -7023,16 +7484,25 @@
       <c r="A89" s="1" t="s">
         <v>475</v>
       </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
@@ -7043,6 +7513,9 @@
       <c r="A93" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
@@ -7056,15 +7529,21 @@
       <c r="A95" s="1" t="s">
         <v>481</v>
       </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>483</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7077,8 +7556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A82" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7121,6 +7600,9 @@
       <c r="A5" s="1" t="s">
         <v>487</v>
       </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -7194,6 +7676,9 @@
       <c r="A16" s="1" t="s">
         <v>498</v>
       </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -7277,6 +7762,9 @@
       <c r="A29" s="1" t="s">
         <v>511</v>
       </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -7313,6 +7801,9 @@
       <c r="A35" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -7323,6 +7814,9 @@
       <c r="A37" s="1" t="s">
         <v>519</v>
       </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -7393,6 +7887,9 @@
       <c r="A48" s="1" t="s">
         <v>530</v>
       </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -7427,9 +7924,6 @@
       <c r="A53" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B53" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -7468,6 +7962,9 @@
       <c r="A60" s="1" t="s">
         <v>542</v>
       </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -7481,6 +7978,9 @@
       <c r="A62" s="1" t="s">
         <v>544</v>
       </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -7491,6 +7991,9 @@
       <c r="A64" s="1" t="s">
         <v>546</v>
       </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -7527,6 +8030,9 @@
       <c r="A70" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -7537,6 +8043,9 @@
       <c r="A72" s="1" t="s">
         <v>554</v>
       </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -7589,6 +8098,9 @@
       <c r="A80" s="1" t="s">
         <v>562</v>
       </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -7616,6 +8128,9 @@
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>567</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -8322,8 +8837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView topLeftCell="A81" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8393,6 +8908,9 @@
       <c r="A10" s="1" t="s">
         <v>684</v>
       </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8622,6 +9140,9 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>724</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -8909,7 +9430,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView topLeftCell="A83" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Master/1711/20171103纯合筛选.xlsx
+++ b/Master/1711/20171103纯合筛选.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="123-B1" sheetId="1" r:id="rId1"/>
@@ -3565,7 +3565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView topLeftCell="A84" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
@@ -5480,8 +5480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6172,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView topLeftCell="A88" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6852,7 +6852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A81" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
@@ -7556,7 +7556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView topLeftCell="A87" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
@@ -8215,7 +8215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="D89" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+    <sheetView topLeftCell="A90" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
@@ -8837,7 +8837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
       <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
@@ -9429,7 +9429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
       <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
